--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,20 +481,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pio Cruzcosa</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.8881</v>
+        <v>14.8956</v>
       </c>
       <c r="D2" t="n">
         <v>120.7855</v>
       </c>
       <c r="E2" t="n">
-        <v>4663</v>
+        <v>5016</v>
       </c>
       <c r="F2" t="n">
-        <v>92</v>
+        <v>45454544</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -507,29 +507,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bry</t>
+          <t>Balungao</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.9</v>
+        <v>14.9143</v>
       </c>
       <c r="D3" t="n">
-        <v>120.78</v>
+        <v>120.7622</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5720</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>52000</v>
       </c>
       <c r="G3" t="n">
-        <v>500</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Buguion</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14.894</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120.7985</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3841</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9157</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.7672</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
         <v>5016</v>
       </c>
       <c r="F2" t="n">
-        <v>45454544</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -520,7 +520,7 @@
         <v>5720</v>
       </c>
       <c r="F3" t="n">
-        <v>52000</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -559,17 +559,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poblacion</t>
+          <t>Calizon</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.9157</v>
+        <v>14.9125</v>
       </c>
       <c r="D5" t="n">
-        <v>120.7672</v>
+        <v>120.753</v>
       </c>
       <c r="E5" t="n">
-        <v>1785</v>
+        <v>2221</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -578,6 +578,32 @@
         <v>1000</v>
       </c>
       <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14.9157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.7672</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>xDegrees</t>
+  </si>
+  <si>
+    <t>yDegrees</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>AffectedPop</t>
+  </si>
+  <si>
+    <t>MaxDistance</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Balungao</t>
+  </si>
+  <si>
+    <t>Bulusan</t>
+  </si>
+  <si>
+    <t>Calizon</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,192 +406,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>xDegrees</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yDegrees</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Population</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>AffectedPop</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MaxDistance</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Balite</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14.8956</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.7855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5016</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>14.9143</v>
+      </c>
+      <c r="D2">
+        <v>120.7622</v>
+      </c>
+      <c r="E2">
+        <v>5720</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" t="b">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Balungao</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14.9143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.7622</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5720</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>14.9076</v>
+      </c>
+      <c r="D3">
+        <v>120.7455</v>
+      </c>
+      <c r="E3">
+        <v>2603</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" t="b">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Buguion</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14.894</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.7985</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3841</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>14.9125</v>
+      </c>
+      <c r="D4">
+        <v>120.753</v>
+      </c>
+      <c r="E4">
+        <v>2221</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" t="b">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Calizon</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14.9125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.753</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2221</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>14.9157</v>
+      </c>
+      <c r="D5">
+        <v>120.7672</v>
+      </c>
+      <c r="E5">
+        <v>1785</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Poblacion</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14.9157</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.7672</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1785</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Active</t>
   </si>
@@ -40,16 +40,22 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>Balite</t>
+  </si>
+  <si>
     <t>Balungao</t>
   </si>
   <si>
     <t>Bulusan</t>
   </si>
   <si>
-    <t>Calizon</t>
-  </si>
-  <si>
-    <t>Poblacion</t>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Gatbuca</t>
+  </si>
+  <si>
+    <t>Iba O'Este</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,19 +453,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>14.9143</v>
+        <v>14.8956</v>
       </c>
       <c r="D2">
-        <v>120.7622</v>
+        <v>120.7855</v>
       </c>
       <c r="E2">
-        <v>5720</v>
+        <v>5016</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,19 +476,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>14.9076</v>
+        <v>14.9143</v>
       </c>
       <c r="D3">
-        <v>120.7455</v>
+        <v>120.7622</v>
       </c>
       <c r="E3">
-        <v>2603</v>
+        <v>5720</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>14.9125</v>
+        <v>14.9076</v>
       </c>
       <c r="D4">
-        <v>120.753</v>
+        <v>120.7455</v>
       </c>
       <c r="E4">
-        <v>2221</v>
+        <v>2603</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -516,19 +522,65 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>14.9157</v>
+        <v>14.9153</v>
       </c>
       <c r="D5">
-        <v>120.7672</v>
+        <v>120.7532</v>
       </c>
       <c r="E5">
-        <v>1785</v>
+        <v>6129</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>14.9218</v>
+      </c>
+      <c r="D6">
+        <v>120.7685</v>
+      </c>
+      <c r="E6">
+        <v>6384</v>
+      </c>
+      <c r="F6">
+        <v>115</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>14.8919</v>
+      </c>
+      <c r="D7">
+        <v>120.7635</v>
+      </c>
+      <c r="E7">
+        <v>14085</v>
+      </c>
+      <c r="F7">
+        <v>601</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Active</t>
   </si>
@@ -46,16 +46,85 @@
     <t>Balungao</t>
   </si>
   <si>
+    <t>Buguion</t>
+  </si>
+  <si>
     <t>Bulusan</t>
   </si>
   <si>
+    <t>Calizon</t>
+  </si>
+  <si>
+    <t>Calumpang</t>
+  </si>
+  <si>
+    <t>Caniogan</t>
+  </si>
+  <si>
+    <t>Corazon</t>
+  </si>
+  <si>
     <t>Frances</t>
   </si>
   <si>
     <t>Gatbuca</t>
   </si>
   <si>
+    <t>Gugo</t>
+  </si>
+  <si>
+    <t>Iba Este</t>
+  </si>
+  <si>
     <t>Iba O'Este</t>
+  </si>
+  <si>
+    <t>Longos</t>
+  </si>
+  <si>
+    <t>Meysulao</t>
+  </si>
+  <si>
+    <t>Meyto</t>
+  </si>
+  <si>
+    <t>Palimbang</t>
+  </si>
+  <si>
+    <t>Panducot</t>
+  </si>
+  <si>
+    <t>Pio Cruzcosa</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Pungo</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Santa Lucia</t>
+  </si>
+  <si>
+    <t>Santo Niño</t>
+  </si>
+  <si>
+    <t>Sapang Bayan</t>
+  </si>
+  <si>
+    <t>Sergio Bayan</t>
+  </si>
+  <si>
+    <t>Sucol</t>
   </si>
 </sst>
 </file>
@@ -413,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -488,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -499,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>14.9076</v>
+        <v>14.894</v>
       </c>
       <c r="D4">
-        <v>120.7455</v>
+        <v>120.7985</v>
       </c>
       <c r="E4">
-        <v>2603</v>
+        <v>3841</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,19 +591,19 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>14.9153</v>
+        <v>14.9076</v>
       </c>
       <c r="D5">
-        <v>120.7532</v>
+        <v>120.7455</v>
       </c>
       <c r="E5">
-        <v>6129</v>
+        <v>2603</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,19 +614,19 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>14.9218</v>
+        <v>14.9125</v>
       </c>
       <c r="D6">
-        <v>120.7685</v>
+        <v>120.753</v>
       </c>
       <c r="E6">
-        <v>6384</v>
+        <v>2221</v>
       </c>
       <c r="F6">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -568,19 +637,548 @@
         <v>13</v>
       </c>
       <c r="C7">
+        <v>14.8845</v>
+      </c>
+      <c r="D7">
+        <v>120.7838</v>
+      </c>
+      <c r="E7">
+        <v>3517</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>14.9054</v>
+      </c>
+      <c r="D8">
+        <v>120.7733</v>
+      </c>
+      <c r="E8">
+        <v>4510</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>14.9128</v>
+      </c>
+      <c r="D9">
+        <v>120.7686</v>
+      </c>
+      <c r="E9">
+        <v>2175</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>14.9153</v>
+      </c>
+      <c r="D10">
+        <v>120.7532</v>
+      </c>
+      <c r="E10">
+        <v>6129</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>14.9218</v>
+      </c>
+      <c r="D11">
+        <v>120.7685</v>
+      </c>
+      <c r="E11">
+        <v>6384</v>
+      </c>
+      <c r="F11">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>14.9014</v>
+      </c>
+      <c r="D12">
+        <v>120.7548</v>
+      </c>
+      <c r="E12">
+        <v>1960</v>
+      </c>
+      <c r="F12">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>14.8899</v>
+      </c>
+      <c r="D13">
+        <v>120.7673</v>
+      </c>
+      <c r="E13">
+        <v>4161</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
         <v>14.8919</v>
       </c>
-      <c r="D7">
+      <c r="D14">
         <v>120.7635</v>
       </c>
-      <c r="E7">
+      <c r="E14">
         <v>14085</v>
       </c>
-      <c r="F7">
+      <c r="F14">
         <v>601</v>
       </c>
-      <c r="G7">
-        <v>12</v>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>14.8748</v>
+      </c>
+      <c r="D15">
+        <v>120.7866</v>
+      </c>
+      <c r="E15">
+        <v>4265</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>14.9078</v>
+      </c>
+      <c r="D16">
+        <v>120.7397</v>
+      </c>
+      <c r="E16">
+        <v>4280</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>14.8831</v>
+      </c>
+      <c r="D17">
+        <v>120.7295</v>
+      </c>
+      <c r="E17">
+        <v>2925</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>14.8994</v>
+      </c>
+      <c r="D18">
+        <v>120.7756</v>
+      </c>
+      <c r="E18">
+        <v>1684</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>14.8761</v>
+      </c>
+      <c r="D19">
+        <v>120.738</v>
+      </c>
+      <c r="E19">
+        <v>1752</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>14.8881</v>
+      </c>
+      <c r="D20">
+        <v>120.7855</v>
+      </c>
+      <c r="E20">
+        <v>4663</v>
+      </c>
+      <c r="F20">
+        <v>92</v>
+      </c>
+      <c r="G20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>14.9157</v>
+      </c>
+      <c r="D21">
+        <v>120.7672</v>
+      </c>
+      <c r="E21">
+        <v>1785</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>14.9023</v>
+      </c>
+      <c r="D22">
+        <v>120.7914</v>
+      </c>
+      <c r="E22">
+        <v>9528</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>14.8838</v>
+      </c>
+      <c r="D23">
+        <v>120.7395</v>
+      </c>
+      <c r="E23">
+        <v>5661</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>14.8976</v>
+      </c>
+      <c r="D24">
+        <v>120.7797</v>
+      </c>
+      <c r="E24">
+        <v>2671</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>14.917</v>
+      </c>
+      <c r="D25">
+        <v>120.7427</v>
+      </c>
+      <c r="E25">
+        <v>6005</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>14.8982</v>
+      </c>
+      <c r="D26">
+        <v>120.736</v>
+      </c>
+      <c r="E26">
+        <v>2460</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>14.9047</v>
+      </c>
+      <c r="D27">
+        <v>120.7792</v>
+      </c>
+      <c r="E27">
+        <v>2544</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>14.9196</v>
+      </c>
+      <c r="D28">
+        <v>120.7739</v>
+      </c>
+      <c r="E28">
+        <v>3140</v>
+      </c>
+      <c r="F28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>14.894</v>
+      </c>
+      <c r="D29">
+        <v>120.7909</v>
+      </c>
+      <c r="E29">
+        <v>1727</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>14.9138</v>
+      </c>
+      <c r="D30">
+        <v>120.7701</v>
+      </c>
+      <c r="E30">
+        <v>1059</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Active</t>
   </si>
@@ -46,48 +46,18 @@
     <t>Balungao</t>
   </si>
   <si>
-    <t>Buguion</t>
-  </si>
-  <si>
-    <t>Bulusan</t>
-  </si>
-  <si>
-    <t>Calizon</t>
-  </si>
-  <si>
     <t>Calumpang</t>
   </si>
   <si>
-    <t>Caniogan</t>
-  </si>
-  <si>
-    <t>Corazon</t>
-  </si>
-  <si>
     <t>Frances</t>
   </si>
   <si>
     <t>Gatbuca</t>
   </si>
   <si>
-    <t>Gugo</t>
-  </si>
-  <si>
-    <t>Iba Este</t>
-  </si>
-  <si>
-    <t>Iba O'Este</t>
-  </si>
-  <si>
     <t>Longos</t>
   </si>
   <si>
-    <t>Meysulao</t>
-  </si>
-  <si>
-    <t>Meyto</t>
-  </si>
-  <si>
     <t>Palimbang</t>
   </si>
   <si>
@@ -97,34 +67,13 @@
     <t>Pio Cruzcosa</t>
   </si>
   <si>
-    <t>Poblacion</t>
-  </si>
-  <si>
-    <t>Pungo</t>
-  </si>
-  <si>
     <t>San Jose</t>
   </si>
   <si>
-    <t>San Marcos</t>
-  </si>
-  <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
     <t>Santa Lucia</t>
   </si>
   <si>
-    <t>Santo Niño</t>
-  </si>
-  <si>
-    <t>Sapang Bayan</t>
-  </si>
-  <si>
     <t>Sergio Bayan</t>
-  </si>
-  <si>
-    <t>Sucol</t>
   </si>
 </sst>
 </file>
@@ -482,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,13 +517,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>14.894</v>
+        <v>14.8845</v>
       </c>
       <c r="D4">
-        <v>120.7985</v>
+        <v>120.7838</v>
       </c>
       <c r="E4">
-        <v>3841</v>
+        <v>3517</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -591,16 +540,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>14.9076</v>
+        <v>14.9153</v>
       </c>
       <c r="D5">
-        <v>120.7455</v>
+        <v>120.7532</v>
       </c>
       <c r="E5">
-        <v>2603</v>
+        <v>6129</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -614,16 +563,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>14.9125</v>
+        <v>14.9218</v>
       </c>
       <c r="D6">
-        <v>120.753</v>
+        <v>120.7685</v>
       </c>
       <c r="E6">
-        <v>2221</v>
+        <v>6384</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -637,13 +586,13 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>14.8845</v>
+        <v>14.8748</v>
       </c>
       <c r="D7">
-        <v>120.7838</v>
+        <v>120.7866</v>
       </c>
       <c r="E7">
-        <v>3517</v>
+        <v>4265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -660,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>14.9054</v>
+        <v>14.8994</v>
       </c>
       <c r="D8">
-        <v>120.7733</v>
+        <v>120.7756</v>
       </c>
       <c r="E8">
-        <v>4510</v>
+        <v>1684</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -683,13 +632,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>14.9128</v>
+        <v>14.8761</v>
       </c>
       <c r="D9">
-        <v>120.7686</v>
+        <v>120.738</v>
       </c>
       <c r="E9">
-        <v>2175</v>
+        <v>1752</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -706,16 +655,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>14.9153</v>
+        <v>14.8881</v>
       </c>
       <c r="D10">
-        <v>120.7532</v>
+        <v>120.7855</v>
       </c>
       <c r="E10">
-        <v>6129</v>
+        <v>4663</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="G10">
         <v>10000</v>
@@ -729,16 +678,16 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>14.9218</v>
+        <v>14.8838</v>
       </c>
       <c r="D11">
-        <v>120.7685</v>
+        <v>120.7395</v>
       </c>
       <c r="E11">
-        <v>6384</v>
+        <v>5661</v>
       </c>
       <c r="F11">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>10000</v>
@@ -752,16 +701,16 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>14.9014</v>
+        <v>14.8982</v>
       </c>
       <c r="D12">
-        <v>120.7548</v>
+        <v>120.736</v>
       </c>
       <c r="E12">
-        <v>1960</v>
+        <v>2460</v>
       </c>
       <c r="F12">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>10000</v>
@@ -775,409 +724,18 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>14.8899</v>
+        <v>14.894</v>
       </c>
       <c r="D13">
-        <v>120.7673</v>
+        <v>120.7909</v>
       </c>
       <c r="E13">
-        <v>4161</v>
+        <v>1727</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>14.8919</v>
-      </c>
-      <c r="D14">
-        <v>120.7635</v>
-      </c>
-      <c r="E14">
-        <v>14085</v>
-      </c>
-      <c r="F14">
-        <v>601</v>
-      </c>
-      <c r="G14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>14.8748</v>
-      </c>
-      <c r="D15">
-        <v>120.7866</v>
-      </c>
-      <c r="E15">
-        <v>4265</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>14.9078</v>
-      </c>
-      <c r="D16">
-        <v>120.7397</v>
-      </c>
-      <c r="E16">
-        <v>4280</v>
-      </c>
-      <c r="F16">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>14.8831</v>
-      </c>
-      <c r="D17">
-        <v>120.7295</v>
-      </c>
-      <c r="E17">
-        <v>2925</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>14.8994</v>
-      </c>
-      <c r="D18">
-        <v>120.7756</v>
-      </c>
-      <c r="E18">
-        <v>1684</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>14.8761</v>
-      </c>
-      <c r="D19">
-        <v>120.738</v>
-      </c>
-      <c r="E19">
-        <v>1752</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>14.8881</v>
-      </c>
-      <c r="D20">
-        <v>120.7855</v>
-      </c>
-      <c r="E20">
-        <v>4663</v>
-      </c>
-      <c r="F20">
-        <v>92</v>
-      </c>
-      <c r="G20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>14.9157</v>
-      </c>
-      <c r="D21">
-        <v>120.7672</v>
-      </c>
-      <c r="E21">
-        <v>1785</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>14.9023</v>
-      </c>
-      <c r="D22">
-        <v>120.7914</v>
-      </c>
-      <c r="E22">
-        <v>9528</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>14.8838</v>
-      </c>
-      <c r="D23">
-        <v>120.7395</v>
-      </c>
-      <c r="E23">
-        <v>5661</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>14.8976</v>
-      </c>
-      <c r="D24">
-        <v>120.7797</v>
-      </c>
-      <c r="E24">
-        <v>2671</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>14.917</v>
-      </c>
-      <c r="D25">
-        <v>120.7427</v>
-      </c>
-      <c r="E25">
-        <v>6005</v>
-      </c>
-      <c r="F25">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>14.8982</v>
-      </c>
-      <c r="D26">
-        <v>120.736</v>
-      </c>
-      <c r="E26">
-        <v>2460</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>14.9047</v>
-      </c>
-      <c r="D27">
-        <v>120.7792</v>
-      </c>
-      <c r="E27">
-        <v>2544</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>14.9196</v>
-      </c>
-      <c r="D28">
-        <v>120.7739</v>
-      </c>
-      <c r="E28">
-        <v>3140</v>
-      </c>
-      <c r="F28">
-        <v>65</v>
-      </c>
-      <c r="G28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>14.894</v>
-      </c>
-      <c r="D29">
-        <v>120.7909</v>
-      </c>
-      <c r="E29">
-        <v>1727</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>14.9138</v>
-      </c>
-      <c r="D30">
-        <v>120.7701</v>
-      </c>
-      <c r="E30">
-        <v>1059</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
         <v>10000</v>
       </c>
     </row>

--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Active</t>
   </si>
@@ -46,18 +46,48 @@
     <t>Balungao</t>
   </si>
   <si>
+    <t>Buguion</t>
+  </si>
+  <si>
+    <t>Bulusan</t>
+  </si>
+  <si>
+    <t>Calizon</t>
+  </si>
+  <si>
     <t>Calumpang</t>
   </si>
   <si>
+    <t>Caniogan</t>
+  </si>
+  <si>
+    <t>Corazon</t>
+  </si>
+  <si>
     <t>Frances</t>
   </si>
   <si>
     <t>Gatbuca</t>
   </si>
   <si>
+    <t>Gugo</t>
+  </si>
+  <si>
+    <t>Iba Este</t>
+  </si>
+  <si>
+    <t>Iba O'Este</t>
+  </si>
+  <si>
     <t>Longos</t>
   </si>
   <si>
+    <t>Meysulao</t>
+  </si>
+  <si>
+    <t>Meyto</t>
+  </si>
+  <si>
     <t>Palimbang</t>
   </si>
   <si>
@@ -67,13 +97,34 @@
     <t>Pio Cruzcosa</t>
   </si>
   <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Pungo</t>
+  </si>
+  <si>
     <t>San Jose</t>
   </si>
   <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
     <t>Santa Lucia</t>
   </si>
   <si>
+    <t>Santo Niño</t>
+  </si>
+  <si>
+    <t>Sapang Bayan</t>
+  </si>
+  <si>
     <t>Sergio Bayan</t>
+  </si>
+  <si>
+    <t>Sucol</t>
   </si>
 </sst>
 </file>
@@ -431,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,10 +531,10 @@
         <v>5016</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G2">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,10 +554,10 @@
         <v>5720</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="G3">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -517,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>14.8845</v>
+        <v>14.894</v>
       </c>
       <c r="D4">
-        <v>120.7838</v>
+        <v>120.7985</v>
       </c>
       <c r="E4">
-        <v>3517</v>
+        <v>3841</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="G4">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -540,19 +591,19 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>14.9153</v>
+        <v>14.9076</v>
       </c>
       <c r="D5">
-        <v>120.7532</v>
+        <v>120.7455</v>
       </c>
       <c r="E5">
-        <v>6129</v>
+        <v>2603</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="G5">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -563,19 +614,19 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>14.9218</v>
+        <v>14.9125</v>
       </c>
       <c r="D6">
-        <v>120.7685</v>
+        <v>120.753</v>
       </c>
       <c r="E6">
-        <v>6384</v>
+        <v>2221</v>
       </c>
       <c r="F6">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="G6">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,19 +637,19 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>14.8748</v>
+        <v>14.8845</v>
       </c>
       <c r="D7">
-        <v>120.7866</v>
+        <v>120.7838</v>
       </c>
       <c r="E7">
-        <v>4265</v>
+        <v>3517</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="G7">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -609,19 +660,19 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>14.8994</v>
+        <v>14.9054</v>
       </c>
       <c r="D8">
-        <v>120.7756</v>
+        <v>120.7733</v>
       </c>
       <c r="E8">
-        <v>1684</v>
+        <v>4510</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="G8">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -632,19 +683,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>14.8761</v>
+        <v>14.9128</v>
       </c>
       <c r="D9">
-        <v>120.738</v>
+        <v>120.7686</v>
       </c>
       <c r="E9">
-        <v>1752</v>
+        <v>2175</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="G9">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -655,19 +706,19 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>14.8881</v>
+        <v>14.9153</v>
       </c>
       <c r="D10">
-        <v>120.7855</v>
+        <v>120.7532</v>
       </c>
       <c r="E10">
-        <v>4663</v>
+        <v>6129</v>
       </c>
       <c r="F10">
-        <v>92</v>
+        <v>736</v>
       </c>
       <c r="G10">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,19 +729,19 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>14.8838</v>
+        <v>14.9218</v>
       </c>
       <c r="D11">
-        <v>120.7395</v>
+        <v>120.7685</v>
       </c>
       <c r="E11">
-        <v>5661</v>
+        <v>6384</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="G11">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -701,19 +752,19 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>14.8982</v>
+        <v>14.9014</v>
       </c>
       <c r="D12">
-        <v>120.736</v>
+        <v>120.7548</v>
       </c>
       <c r="E12">
-        <v>2460</v>
+        <v>1960</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G12">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -724,19 +775,410 @@
         <v>19</v>
       </c>
       <c r="C13">
+        <v>14.8899</v>
+      </c>
+      <c r="D13">
+        <v>120.7673</v>
+      </c>
+      <c r="E13">
+        <v>4161</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>14.8919</v>
+      </c>
+      <c r="D14">
+        <v>120.7635</v>
+      </c>
+      <c r="E14">
+        <v>14085</v>
+      </c>
+      <c r="F14">
+        <v>1691</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>14.8748</v>
+      </c>
+      <c r="D15">
+        <v>120.7866</v>
+      </c>
+      <c r="E15">
+        <v>4265</v>
+      </c>
+      <c r="F15">
+        <v>512</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>14.9078</v>
+      </c>
+      <c r="D16">
+        <v>120.7397</v>
+      </c>
+      <c r="E16">
+        <v>4280</v>
+      </c>
+      <c r="F16">
+        <v>514</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>14.8831</v>
+      </c>
+      <c r="D17">
+        <v>120.7295</v>
+      </c>
+      <c r="E17">
+        <v>2925</v>
+      </c>
+      <c r="F17">
+        <v>351</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>14.8994</v>
+      </c>
+      <c r="D18">
+        <v>120.7756</v>
+      </c>
+      <c r="E18">
+        <v>1684</v>
+      </c>
+      <c r="F18">
+        <v>203</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>14.8761</v>
+      </c>
+      <c r="D19">
+        <v>120.738</v>
+      </c>
+      <c r="E19">
+        <v>1752</v>
+      </c>
+      <c r="F19">
+        <v>211</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>14.8881</v>
+      </c>
+      <c r="D20">
+        <v>120.7855</v>
+      </c>
+      <c r="E20">
+        <v>4663</v>
+      </c>
+      <c r="F20">
+        <v>560</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>14.9157</v>
+      </c>
+      <c r="D21">
+        <v>120.7672</v>
+      </c>
+      <c r="E21">
+        <v>1785</v>
+      </c>
+      <c r="F21">
+        <v>215</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>14.9023</v>
+      </c>
+      <c r="D22">
+        <v>120.7914</v>
+      </c>
+      <c r="E22">
+        <v>9528</v>
+      </c>
+      <c r="F22">
+        <v>1144</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>14.8838</v>
+      </c>
+      <c r="D23">
+        <v>120.7395</v>
+      </c>
+      <c r="E23">
+        <v>5661</v>
+      </c>
+      <c r="F23">
+        <v>680</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>14.8976</v>
+      </c>
+      <c r="D24">
+        <v>120.7797</v>
+      </c>
+      <c r="E24">
+        <v>2671</v>
+      </c>
+      <c r="F24">
+        <v>321</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>14.917</v>
+      </c>
+      <c r="D25">
+        <v>120.7427</v>
+      </c>
+      <c r="E25">
+        <v>6005</v>
+      </c>
+      <c r="F25">
+        <v>721</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>14.8982</v>
+      </c>
+      <c r="D26">
+        <v>120.736</v>
+      </c>
+      <c r="E26">
+        <v>2460</v>
+      </c>
+      <c r="F26">
+        <v>296</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>14.9047</v>
+      </c>
+      <c r="D27">
+        <v>120.7792</v>
+      </c>
+      <c r="E27">
+        <v>2544</v>
+      </c>
+      <c r="F27">
+        <v>306</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>14.9196</v>
+      </c>
+      <c r="D28">
+        <v>120.7739</v>
+      </c>
+      <c r="E28">
+        <v>3140</v>
+      </c>
+      <c r="F28">
+        <v>377</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
         <v>14.894</v>
       </c>
-      <c r="D13">
+      <c r="D29">
         <v>120.7909</v>
       </c>
-      <c r="E13">
+      <c r="E29">
         <v>1727</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>10000</v>
+      <c r="F29">
+        <v>208</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>14.9138</v>
+      </c>
+      <c r="D30">
+        <v>120.7701</v>
+      </c>
+      <c r="E30">
+        <v>1059</v>
+      </c>
+      <c r="F30">
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelCommData.xlsx
+++ b/ProgramSrc/modelCommData.xlsx
@@ -22,10 +22,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>xDegrees</t>
-  </si>
-  <si>
-    <t>yDegrees</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Population</t>
